--- a/Data_Analysis.xlsx
+++ b/Data_Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caiyilun/Desktop/MINI#1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caiyilun/Desktop/comparing-baltimore-boston-household-income/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E95EA9F-2987-3649-9A68-208F93646B5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59726006-D0A3-794A-9368-C2EC80632256}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="4" xr2:uid="{EF24CE01-5409-E643-8062-4D081455ED98}"/>
+    <workbookView xWindow="-2620" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="2" xr2:uid="{EF24CE01-5409-E643-8062-4D081455ED98}"/>
   </bookViews>
   <sheets>
     <sheet name="BAL_rALL_data" sheetId="2" r:id="rId1"/>
@@ -18,53 +18,25 @@
     <sheet name="BOS_rALL_data" sheetId="3" r:id="rId3"/>
     <sheet name="BOS_visualize" sheetId="9" r:id="rId4"/>
     <sheet name="Cities_compare" sheetId="10" r:id="rId5"/>
-    <sheet name="inspiration" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BAL_rALL_data!$A$1:$J$234</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BAL_visualize!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BOS_rALL_data!$A$1:$L$121</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">BAL_rALL_data!$I$16:$I$234</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">BAL_rALL_data!$I$2:$I$15</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">BAL_visualize!$C$10</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">BAL_visualize!$C$11:$C$14</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">BAL_visualize!$D$10</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">BAL_visualize!$D$11:$D$14</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">BOS_rALL_data!$C$2:$C$116</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">BOS_rALL_data!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">BOS_rALL_data!$E$5:$E$116</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">BOS_rALL_data!$I$10:$I$116</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">BOS_rALL_data!$I$2:$I$9</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">BOS_rALL_data!$G$2:$G$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">BAL_rALL_data!$C$2</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">BOS_rALL_data!$G$5:$G$116</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Cities_compare!$A$2</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Cities_compare!$A$3</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Cities_compare!$B$1:$E$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Cities_compare!$B$2:$E$2</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Cities_compare!$B$3:$E$3</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Cities_compare!$A$2</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Cities_compare!$A$3</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Cities_compare!$B$1:$E$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Cities_compare!$B$2:$E$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">BAL_rALL_data!$C$3:$C$234</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Cities_compare!$B$3:$E$3</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Cities_compare!$A$2</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Cities_compare!$A$3</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Cities_compare!$B$1:$E$1</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Cities_compare!$B$2:$E$2</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Cities_compare!$B$3:$E$3</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Cities_compare!$A$2</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Cities_compare!$A$3</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Cities_compare!$B$1:$E$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Cities_compare!$B$2:$E$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">BAL_rALL_data!$G$2:$G$4</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">BAL_rALL_data!$G$5:$G$234</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">BOS_rALL_data!$G$5:$G$116</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">BOS_rALL_data!$I$10:$I$116</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">BOS_rALL_data!$I$2:$I$9</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">BOS_rALL_data!$C$2:$C$116</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">BAL_rALL_data!$I$16:$I$234</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">BAL_rALL_data!$I$2:$I$15</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">BAL_rALL_data!$E$2:$E$234</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Cities_compare!$B$3:$E$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">BAL_rALL_data!$G$2:$G$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">BAL_rALL_data!$G$5:$G$234</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">BAL_visualize!$A$11:$A$14</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">BAL_visualize!$B$10</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">BAL_visualize!$B$11:$B$14</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">BAL_rALL_data!$C$2</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">BAL_rALL_data!$C$3:$C$234</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">BOS_rALL_data!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">BOS_rALL_data!$E$5:$E$116</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">BOS_rALL_data!$G$2:$G$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="211">
   <si>
     <t>tract</t>
   </si>
@@ -630,27 +602,6 @@
     <t>VALID_DATA#</t>
   </si>
   <si>
-    <t>Overall Economy, BOS&gt;BAL</t>
-  </si>
-  <si>
-    <t>Similarity: income rW&gt;rB</t>
-  </si>
-  <si>
-    <t>Bias: Invalid data for rH/rA</t>
-  </si>
-  <si>
-    <t>Diversity, BOS&gt;BAL; for BAL, rB domains</t>
-  </si>
-  <si>
-    <t>DA Level: City</t>
-  </si>
-  <si>
-    <t>DA Level: Race</t>
-  </si>
-  <si>
-    <t>Difference: Distribution of income; gap between rich and poor</t>
-  </si>
-  <si>
     <t>rB_Income_quantile</t>
   </si>
   <si>
@@ -727,13 +678,22 @@
   </si>
   <si>
     <t>Min</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Diversity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -753,6 +713,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -820,13 +787,13 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -834,11 +801,82 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" sz="1920" b="0" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Distribution of Household Income by Race - Baltimore</a:t>
+              <a:t>The</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1920" b="0" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1920" b="0" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Racial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1920" b="0" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1920" b="0" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Wealth</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1920" b="0" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1920" b="0" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Divide</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1920" b="0" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1920" b="0" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>in</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1920" b="0" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1920" b="0" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Baltimore</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -854,13 +892,13 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1133,7 +1171,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1184,7 +1222,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1197,34 +1235,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Share</a:t>
+                  <a:rPr lang="en-US">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Levels of household income</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>of</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>househould</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>income</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1241,7 +1256,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1279,7 +1294,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1360,12 +1375,7 @@
       <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1375,7 +1385,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200" baseline="0"/>
+        <a:defRPr sz="1600" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-CN"/>
     </a:p>
@@ -1409,7 +1419,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="3000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1422,70 +1432,80 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>DISTRUBUTION</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>The</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:rPr lang="zh-CN" sz="1800" b="0" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>OF</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Racial</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:rPr lang="zh-CN" sz="1800" b="0" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>HOUSEHOLD</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Wealth</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:rPr lang="zh-CN" sz="1800" b="0" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>INCOME</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Divide</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:rPr lang="zh-CN" sz="1800" b="0" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>BY</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>in</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:rPr lang="zh-CN" sz="1800" b="0" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>RACE</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>B</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Oston</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>-</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>BOSTON</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-CN"/>
+            <a:endParaRPr lang="en-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1502,7 +1522,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="3000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1780,7 +1800,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1831,7 +1851,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1844,34 +1864,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>SHARE</a:t>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Levels of household income</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-                  <a:t>OF</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-                  <a:t>HOUSEHOLD</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-                  <a:t>INCOME</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CN"/>
+                <a:endParaRPr lang="en-CN">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1888,7 +1888,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1920,7 +1920,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1962,7 +1962,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0">
-              <a:defRPr sz="3000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2002,12 +2002,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2017,7 +2012,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="2500" baseline="0"/>
+        <a:defRPr sz="1600" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-CN"/>
     </a:p>
@@ -2064,66 +2059,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1200" baseline="0"/>
-              <a:t>Comarison</a:t>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Comparison of annual household income in Boston &amp; Baltimore (U.S. dollars)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
-              <a:t>of</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
-              <a:t>Household</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
-              <a:t>income</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
-              <a:t>of</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
-              <a:t>Boston</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
-              <a:t>&amp;</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
-              <a:t>Baltimore</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2615,12 +2555,742 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cities_compare!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baltimore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8570-A942-8729-B44CD2450F9E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8570-A942-8729-B44CD2450F9E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8570-A942-8729-B44CD2450F9E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8570-A942-8729-B44CD2450F9E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cities_compare!$H$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Black</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>White</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hispanic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Asian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cities_compare!$H$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EAD5-604E-AA71-6A2D443593D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cities_compare!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Boston</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A0AB-E44A-91B8-2A0A5DEBD9B2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A0AB-E44A-91B8-2A0A5DEBD9B2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A0AB-E44A-91B8-2A0A5DEBD9B2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A0AB-E44A-91B8-2A0A5DEBD9B2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cities_compare!$H$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Black</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>White</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hispanic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Asian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cities_compare!$H$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CAE-A64D-A7B3-2CB60AD3F520}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2658,7 +3328,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{279AC868-6AF6-1644-B213-A3AB52AA0814}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -2815,7 +3485,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2853,7 +3523,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{BAF44C1F-0EBE-F74E-8488-226F1F5A5547}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -2912,7 +3582,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2950,7 +3620,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{AF70A655-93AA-1B42-AD80-28F3A8882828}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -3007,7 +3677,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3102,7 +3772,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3170,7 +3840,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{21942DDA-E8B7-A04B-B0D9-0B54B04AFCB8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -3203,7 +3873,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3271,7 +3941,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{15531DEE-D6EE-8F41-B8FC-0A85871EAF53}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -3303,7 +3973,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3371,7 +4041,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{7D44251E-3304-844F-95D8-8ADB09B49907}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -3481,6 +4151,86 @@
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -5348,6 +6098,1040 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
@@ -9471,8 +11255,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="25964207" y="623169"/>
-              <a:ext cx="4561472" cy="2766403"/>
+              <a:off x="25989607" y="623169"/>
+              <a:ext cx="4637672" cy="2766403"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9549,8 +11333,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="25993067" y="3481906"/>
-              <a:ext cx="4539074" cy="2735048"/>
+              <a:off x="26018467" y="3481906"/>
+              <a:ext cx="4615274" cy="2735048"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9627,8 +11411,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="30522060" y="630408"/>
-              <a:ext cx="4529443" cy="2798897"/>
+              <a:off x="30623660" y="630408"/>
+              <a:ext cx="4592943" cy="2798897"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9705,8 +11489,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="30544402" y="3474109"/>
-              <a:ext cx="4536955" cy="2748196"/>
+              <a:off x="30646002" y="3474109"/>
+              <a:ext cx="4600455" cy="2748196"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9744,15 +11528,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>677096</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>397695</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>773896</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>119975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9829,8 +11613,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="17374754" y="739494"/>
-              <a:ext cx="4586432" cy="2759363"/>
+              <a:off x="22264254" y="739494"/>
+              <a:ext cx="4649932" cy="2759363"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9907,8 +11691,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="17367537" y="3526566"/>
-              <a:ext cx="4586432" cy="2758209"/>
+              <a:off x="22257037" y="3526566"/>
+              <a:ext cx="4649932" cy="2758209"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9985,8 +11769,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="21942425" y="768359"/>
-              <a:ext cx="4589318" cy="2759363"/>
+              <a:off x="26895425" y="768359"/>
+              <a:ext cx="4665518" cy="2759363"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10063,8 +11847,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="21927992" y="3526567"/>
-              <a:ext cx="4589318" cy="2758209"/>
+              <a:off x="26880992" y="3526567"/>
+              <a:ext cx="4665518" cy="2758209"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10101,16 +11885,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>801042</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>102972</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>339042</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>21550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10142,16 +11926,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10174,6 +11958,83 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="Group 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24454F4D-1EBA-AE4B-BD1F-A5BE8747768A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="2241550"/>
+          <a:ext cx="4559300" cy="2755900"/>
+          <a:chOff x="0" y="2241550"/>
+          <a:chExt cx="4559300" cy="2755900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="5" name="Chart 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07F3BB7-7EA5-2F4E-82C6-470B992D7E02}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="0" y="2241550"/>
+          <a:ext cx="2286000" cy="2743200"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="6" name="Chart 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824A3936-9206-4C4C-ACA8-0A045673E975}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="2273300" y="2254250"/>
+          <a:ext cx="2286000" cy="2743200"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10476,14 +12337,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE90BDD2-84E7-7348-81A3-F22DB05B62AF}">
-  <dimension ref="A1:L240"/>
+  <dimension ref="A1:J244"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="50" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N239" sqref="N239"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D246" sqref="D246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.33203125" bestFit="1" customWidth="1"/>
@@ -10508,25 +12369,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -10577,7 +12438,7 @@
         <v>22971</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F67" si="0">IF(E4&lt;38000,"Low",IF(E4&gt;49000,"High", "Middle"))</f>
+        <f t="shared" ref="F4:F64" si="0">IF(E4&lt;38000,"Low",IF(E4&gt;49000,"High", "Middle"))</f>
         <v>Low</v>
       </c>
     </row>
@@ -10628,7 +12489,7 @@
         <v>27714</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" ref="H5:H61" si="2">IF(G6&lt;30000,"Low",IF(G6&gt;37000,"High", "Middle"))</f>
+        <f t="shared" ref="H6:H61" si="2">IF(G6&lt;30000,"Low",IF(G6&gt;37000,"High", "Middle"))</f>
         <v>Low</v>
       </c>
     </row>
@@ -10768,7 +12629,7 @@
         <v>58061</v>
       </c>
       <c r="H13" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -10833,13 +12694,13 @@
         <v>35053</v>
       </c>
       <c r="H16" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I16">
         <v>64046</v>
       </c>
       <c r="J16" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -10904,7 +12765,7 @@
         <v>44547</v>
       </c>
       <c r="H19" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -11029,7 +12890,7 @@
         <v>59374</v>
       </c>
       <c r="J26" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -11841,7 +13702,7 @@
         <v>27660</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" ref="F68:F131" si="6">IF(E69&lt;38000,"Low",IF(E69&gt;49000,"High", "Middle"))</f>
+        <f t="shared" ref="F69:F131" si="6">IF(E69&lt;38000,"Low",IF(E69&gt;49000,"High", "Middle"))</f>
         <v>Low</v>
       </c>
     </row>
@@ -12101,7 +13962,7 @@
         <v>24848</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" ref="H84:H129" si="7">IF(G84&lt;30000,"Low",IF(G84&gt;37000,"High", "Middle"))</f>
+        <f t="shared" ref="H84:H98" si="7">IF(G84&lt;30000,"Low",IF(G84&gt;37000,"High", "Middle"))</f>
         <v>Low</v>
       </c>
     </row>
@@ -12937,7 +14798,7 @@
         <v>40177</v>
       </c>
       <c r="H129" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -13275,13 +15136,13 @@
         <v>36508</v>
       </c>
       <c r="H146" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I146">
         <v>51675</v>
       </c>
       <c r="J146" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -13317,7 +15178,7 @@
         <v>36960</v>
       </c>
       <c r="H148" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
@@ -13559,7 +15420,7 @@
         <v>25310</v>
       </c>
       <c r="H160" t="str">
-        <f t="shared" ref="H146:H183" si="10">IF(G160&lt;30000,"Low",IF(G160&gt;37000,"High", "Middle"))</f>
+        <f t="shared" ref="H160:H176" si="10">IF(G160&lt;30000,"Low",IF(G160&gt;37000,"High", "Middle"))</f>
         <v>Low</v>
       </c>
     </row>
@@ -13979,7 +15840,7 @@
         <v>30084</v>
       </c>
       <c r="H181" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
@@ -14007,7 +15868,7 @@
         <v>31550</v>
       </c>
       <c r="H182" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
@@ -14035,7 +15896,7 @@
         <v>35062</v>
       </c>
       <c r="H183" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
@@ -14145,7 +16006,7 @@
         <v>40303</v>
       </c>
       <c r="J189" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
@@ -14262,7 +16123,7 @@
         <v>51938</v>
       </c>
       <c r="J195" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
@@ -14283,7 +16144,7 @@
         <v>24808</v>
       </c>
       <c r="F196" t="str">
-        <f t="shared" ref="F196:F240" si="12">IF(E196&lt;38000,"Low",IF(E196&gt;49000,"High", "Middle"))</f>
+        <f t="shared" ref="F196:F234" si="12">IF(E196&lt;38000,"Low",IF(E196&gt;49000,"High", "Middle"))</f>
         <v>Low</v>
       </c>
     </row>
@@ -14647,7 +16508,7 @@
         <v>28722</v>
       </c>
       <c r="H217" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -14776,7 +16637,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>24510280403</v>
       </c>
@@ -14798,7 +16659,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>24510250301</v>
       </c>
@@ -14820,7 +16681,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>24510150900</v>
       </c>
@@ -14835,7 +16696,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>24005401507</v>
       </c>
@@ -14860,10 +16721,10 @@
         <v>57825</v>
       </c>
       <c r="J228" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>24005402303</v>
       </c>
@@ -14888,10 +16749,10 @@
         <v>32722</v>
       </c>
       <c r="H229" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>24510271002</v>
       </c>
@@ -14906,7 +16767,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>24510130806</v>
       </c>
@@ -14928,7 +16789,7 @@
         <v>Middle</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>24510130400</v>
       </c>
@@ -14943,7 +16804,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>24510270501</v>
       </c>
@@ -14965,7 +16826,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>24510250102</v>
       </c>
@@ -14987,90 +16848,103 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A235" s="2"/>
-      <c r="L235">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B235">
         <f>MEDIAN(C2:I234)</f>
         <v>29400</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A236" s="2"/>
-      <c r="L236">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B236">
         <f>AVERAGE(C2:I234)</f>
         <v>33332.241286863267</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A237" s="2"/>
-      <c r="B237" t="s">
-        <v>201</v>
-      </c>
-      <c r="L237">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B237">
         <f>MIN(C2:I234)</f>
         <v>10942</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A238" s="2"/>
-      <c r="B238" t="s">
-        <v>200</v>
-      </c>
-      <c r="L238">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B238">
         <f>MAX(C2:$I$234)</f>
         <v>77401</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A239" s="2"/>
-      <c r="L239">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B239">
         <v>233</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
-      <c r="L240">
+      <c r="B240">
         <f>STDEV(C2:I234)</f>
         <v>13699.356137280056</v>
       </c>
     </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B243" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J234" xr:uid="{5BAE8E84-8596-E648-AC72-4E28284F3C18}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFC3904-996E-5944-8D4C-95A07FE93EA7}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F1:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15084,13 +16958,10 @@
       <c r="E2">
         <v>38</v>
       </c>
-      <c r="F2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B3">
         <v>48</v>
@@ -15104,13 +16975,10 @@
       <c r="E3">
         <v>90</v>
       </c>
-      <c r="F3">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -15124,13 +16992,10 @@
       <c r="E4">
         <v>219</v>
       </c>
-      <c r="F4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -15144,24 +17009,21 @@
       <c r="E5">
         <v>232</v>
       </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B11" s="3">
         <v>5.0000000000000001E-3</v>
@@ -15173,9 +17035,9 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B12" s="3">
         <v>0.32400000000000001</v>
@@ -15187,9 +17049,9 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B13" s="3">
         <v>5.1999999999999998E-2</v>
@@ -15201,9 +17063,9 @@
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B14" s="4">
         <v>0.83299999999999996</v>
@@ -15217,6 +17079,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D5" xr:uid="{6CF7E5F8-2F38-384D-A8E8-69AEF29EFD4A}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15226,13 +17089,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C67399-B258-F049-9FD8-EBFB3FFD3392}">
   <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="50" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A110" sqref="A110"/>
-      <selection pane="topRight" activeCell="J117" sqref="J117"/>
+      <selection pane="topRight" activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
@@ -15258,25 +17121,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -15342,7 +17205,7 @@
         <v>27186</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G5">
         <v>29421</v>
@@ -15467,14 +17330,14 @@
         <v>22158</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" ref="F5:F65" si="1">IF(E12&lt;39000,"Low",IF(E12&gt;50000,"High", "Middle"))</f>
+        <f t="shared" ref="F12:F65" si="1">IF(E12&lt;39000,"Low",IF(E12&gt;50000,"High", "Middle"))</f>
         <v>Low</v>
       </c>
       <c r="G12">
         <v>29800</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" ref="H6:H69" si="2">IF(G12&lt;39000,"Low",IF(G12&gt;50000,"High", "Middle"))</f>
+        <f t="shared" ref="H12:H69" si="2">IF(G12&lt;39000,"Low",IF(G12&gt;50000,"High", "Middle"))</f>
         <v>Low</v>
       </c>
     </row>
@@ -15660,7 +17523,7 @@
         <v>55941</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" ref="J11:J74" si="3">IF(I23&lt;39000,"Low",IF(I23&gt;50000,"High", "Middle"))</f>
+        <f t="shared" ref="J23:J67" si="3">IF(I23&lt;39000,"Low",IF(I23&gt;50000,"High", "Middle"))</f>
         <v>High</v>
       </c>
     </row>
@@ -16899,7 +18762,7 @@
         <v>38923</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" ref="H70:H121" si="6">IF(G72&lt;39000,"Low",IF(G72&gt;50000,"High", "Middle"))</f>
+        <f t="shared" ref="H72:H115" si="6">IF(G72&lt;39000,"Low",IF(G72&gt;50000,"High", "Middle"))</f>
         <v>Low</v>
       </c>
     </row>
@@ -16972,7 +18835,7 @@
         <v>39046</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" ref="J75:J115" si="7">IF(I75&lt;39000,"Low",IF(I75&gt;50000,"High", "Middle"))</f>
+        <f t="shared" ref="J75:J109" si="7">IF(I75&lt;39000,"Low",IF(I75&gt;50000,"High", "Middle"))</f>
         <v>Middle</v>
       </c>
     </row>
@@ -17748,7 +19611,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>25025091400</v>
       </c>
@@ -17770,7 +19633,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>25025010300</v>
       </c>
@@ -17778,7 +19641,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>25025080601</v>
       </c>
@@ -17800,7 +19663,7 @@
         <v>Low</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>25025010408</v>
       </c>
@@ -17808,142 +19671,79 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1">
-        <f>MEDIAN(C2:C116)</f>
-        <v>51265.5</v>
-      </c>
-      <c r="E117" s="1">
-        <f>MEDIAN(E2:E116)</f>
-        <v>28560</v>
-      </c>
-      <c r="G117" s="1">
-        <f>MEDIAN(G2:G116)</f>
-        <v>32035.5</v>
-      </c>
-      <c r="I117" s="1">
-        <f>MEDIAN(I2:I116)</f>
-        <v>52895</v>
-      </c>
-      <c r="J117" s="1">
+      <c r="B117" s="1">
         <f>MEDIAN(C2:I116)</f>
         <v>38134</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1">
-        <f>AVERAGE(C2:C116)</f>
-        <v>53592.975609756097</v>
-      </c>
-      <c r="E118" s="1">
-        <f>AVERAGE(E2:E116)</f>
-        <v>28708.982456140351</v>
-      </c>
-      <c r="G118" s="1">
-        <f>AVERAGE(G2:G116)</f>
-        <v>33399.878787878784</v>
-      </c>
-      <c r="I118" s="1">
-        <f>AVERAGE(I2:I116)</f>
-        <v>52716.84</v>
-      </c>
-      <c r="J118" s="1">
+      <c r="B118" s="1">
         <f>AVERAGE(C2:I116)</f>
         <v>41536.300000000003</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1">
-        <f>MIN(C2:C116)</f>
-        <v>24059</v>
-      </c>
-      <c r="E119" s="1">
-        <f>MIN(E2:E116)</f>
-        <v>10091</v>
-      </c>
-      <c r="G119" s="1">
-        <f>MIN(G2:G116)</f>
-        <v>21067</v>
-      </c>
-      <c r="I119" s="1">
-        <f>MIN(I2:I116)</f>
-        <v>36909</v>
-      </c>
-      <c r="J119" s="1">
+      <c r="B119" s="1">
         <f>MIN(C2:I116)</f>
         <v>10091</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1">
-        <f>MAX(C2:C116)</f>
-        <v>93332</v>
-      </c>
-      <c r="E120" s="1">
-        <f>MAX(E2:E116)</f>
-        <v>40672</v>
-      </c>
-      <c r="G120" s="1">
-        <f>MAX(G2:G116)</f>
-        <v>55520</v>
-      </c>
-      <c r="I120" s="1">
-        <f>MAX(I2:I116)</f>
-        <v>74788</v>
-      </c>
-      <c r="J120" s="1">
+      <c r="B120" s="1">
         <f>MAX(C2:I116)</f>
         <v>93332</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B121">
         <v>115</v>
       </c>
-      <c r="C121">
-        <v>82</v>
-      </c>
-      <c r="E121">
-        <v>57</v>
-      </c>
-      <c r="G121">
-        <v>66</v>
-      </c>
-      <c r="I121">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L121" xr:uid="{6C91C131-90FA-9842-8073-C43091A5D238}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17951,31 +19751,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4F23CD-1A78-9543-ADFA-E5642B4CDA4B}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="37" workbookViewId="0">
-      <selection activeCell="AE40" sqref="AE40"/>
+    <sheetView zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F1:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E1">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -17989,13 +19789,10 @@
       <c r="E2">
         <v>57</v>
       </c>
-      <c r="F2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B3">
         <v>46</v>
@@ -18009,13 +19806,10 @@
       <c r="E3">
         <v>82</v>
       </c>
-      <c r="F3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -18029,13 +19823,10 @@
       <c r="E4">
         <v>66</v>
       </c>
-      <c r="F4">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B5">
         <v>17</v>
@@ -18049,24 +19840,21 @@
       <c r="E5">
         <v>25</v>
       </c>
-      <c r="F5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -18078,9 +19866,9 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B12" s="3">
         <v>0.56000000000000005</v>
@@ -18092,9 +19880,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B13" s="3">
         <v>1.4999999999999999E-2</v>
@@ -18106,9 +19894,9 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B14" s="4">
         <v>0.68</v>
@@ -18121,6 +19909,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -18128,31 +19917,49 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC04B50-894B-2040-ACC2-458A10D3C1B0}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>209</v>
+      </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="G1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B2" s="5">
         <v>29400</v>
@@ -18166,10 +19973,25 @@
       <c r="E2" s="5">
         <v>10942</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="5">
+        <v>200</v>
+      </c>
+      <c r="I2" s="5">
+        <v>148</v>
+      </c>
+      <c r="J2" s="5">
+        <v>19</v>
+      </c>
+      <c r="K2" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B3" s="5">
         <v>38134</v>
@@ -18183,62 +20005,25 @@
       <c r="E3" s="5">
         <v>10091</v>
       </c>
+      <c r="G3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="5">
+        <v>57</v>
+      </c>
+      <c r="I3" s="5">
+        <v>82</v>
+      </c>
+      <c r="J3" s="5">
+        <v>66</v>
+      </c>
+      <c r="K3" s="5">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2D14FF-DCB1-2E48-886F-118C68C97978}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="65" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>